--- a/Code/Results/Cases/Case_9_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_54/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008821200420644</v>
+        <v>1.008358639437942</v>
       </c>
       <c r="D2">
-        <v>1.028531078493916</v>
+        <v>1.027497584817957</v>
       </c>
       <c r="E2">
-        <v>1.014082778837542</v>
+        <v>1.013690588460851</v>
       </c>
       <c r="F2">
-        <v>1.02955529158742</v>
+        <v>1.029297443363246</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050361347699885</v>
+        <v>1.049861866006055</v>
       </c>
       <c r="J2">
-        <v>1.030741234424613</v>
+        <v>1.030292187238999</v>
       </c>
       <c r="K2">
-        <v>1.03960674042788</v>
+        <v>1.038586678854772</v>
       </c>
       <c r="L2">
-        <v>1.025349343600332</v>
+        <v>1.024962430513276</v>
       </c>
       <c r="M2">
-        <v>1.040617675331923</v>
+        <v>1.040363166810411</v>
       </c>
       <c r="N2">
-        <v>1.014133850832018</v>
+        <v>1.015225831673355</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.040718555978117</v>
+        <v>1.040517129580568</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03907567318188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038363171314646</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022326835111626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012145740128245</v>
+        <v>1.01156516562655</v>
       </c>
       <c r="D3">
-        <v>1.030785307935886</v>
+        <v>1.029583899429343</v>
       </c>
       <c r="E3">
-        <v>1.016661363786445</v>
+        <v>1.016165433958059</v>
       </c>
       <c r="F3">
-        <v>1.032128431673907</v>
+        <v>1.031812725662482</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051251365812731</v>
+        <v>1.050659561219403</v>
       </c>
       <c r="J3">
-        <v>1.032310688496702</v>
+        <v>1.031745441954565</v>
       </c>
       <c r="K3">
-        <v>1.041038873492295</v>
+        <v>1.039851740495675</v>
       </c>
       <c r="L3">
-        <v>1.027085407049495</v>
+        <v>1.026595570276646</v>
       </c>
       <c r="M3">
-        <v>1.042366086553764</v>
+        <v>1.042054115790314</v>
       </c>
       <c r="N3">
-        <v>1.014663227758363</v>
+        <v>1.015614483953864</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042102304488278</v>
+        <v>1.041855401051244</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04008565047618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039254739238217</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022565901983129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014261559162594</v>
+        <v>1.013606547089107</v>
       </c>
       <c r="D4">
-        <v>1.032223224911991</v>
+        <v>1.030915395526688</v>
       </c>
       <c r="E4">
-        <v>1.018307997181269</v>
+        <v>1.017746558285765</v>
       </c>
       <c r="F4">
-        <v>1.033772225166931</v>
+        <v>1.03342001097923</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051808833661877</v>
+        <v>1.051158434017421</v>
       </c>
       <c r="J4">
-        <v>1.033307356858546</v>
+        <v>1.032668485838357</v>
       </c>
       <c r="K4">
-        <v>1.041947697619248</v>
+        <v>1.040654485132704</v>
       </c>
       <c r="L4">
-        <v>1.028190370353889</v>
+        <v>1.027635414212127</v>
       </c>
       <c r="M4">
-        <v>1.043479444394132</v>
+        <v>1.043131147741415</v>
       </c>
       <c r="N4">
-        <v>1.014999455160773</v>
+        <v>1.015861423219378</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042983450082532</v>
+        <v>1.042707797527724</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040729160394543</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039823325022228</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022715265921381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015145611358225</v>
+        <v>1.014459598279525</v>
       </c>
       <c r="D5">
-        <v>1.032826985637525</v>
+        <v>1.031474802217358</v>
       </c>
       <c r="E5">
-        <v>1.018997689212819</v>
+        <v>1.018408944004723</v>
       </c>
       <c r="F5">
-        <v>1.034459674813718</v>
+        <v>1.034092258052142</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052041044389361</v>
+        <v>1.051366188620047</v>
       </c>
       <c r="J5">
-        <v>1.033724672465851</v>
+        <v>1.033055066804278</v>
       </c>
       <c r="K5">
-        <v>1.042329640744985</v>
+        <v>1.040992173386634</v>
       </c>
       <c r="L5">
-        <v>1.028653119722297</v>
+        <v>1.028070991906373</v>
       </c>
       <c r="M5">
-        <v>1.04394462394716</v>
+        <v>1.043581185719052</v>
       </c>
       <c r="N5">
-        <v>1.015140589076489</v>
+        <v>1.015965119238421</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.043351607153501</v>
+        <v>1.043063971239014</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041006386310478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040069971390583</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02277804083624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015296990007091</v>
+        <v>1.014605614530313</v>
       </c>
       <c r="D6">
-        <v>1.0329330820052</v>
+        <v>1.031573319816824</v>
       </c>
       <c r="E6">
-        <v>1.019116311485373</v>
+        <v>1.018522831655847</v>
       </c>
       <c r="F6">
-        <v>1.034576462500216</v>
+        <v>1.034206422392109</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052082462550886</v>
+        <v>1.051403408284876</v>
       </c>
       <c r="J6">
-        <v>1.033797823475458</v>
+        <v>1.033122899899391</v>
       </c>
       <c r="K6">
-        <v>1.042398476882501</v>
+        <v>1.041053446390156</v>
       </c>
       <c r="L6">
-        <v>1.028733648847916</v>
+        <v>1.028146809141148</v>
       </c>
       <c r="M6">
-        <v>1.044024116309972</v>
+        <v>1.043658064929715</v>
       </c>
       <c r="N6">
-        <v>1.015165743021283</v>
+        <v>1.015983625816931</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.043414519778536</v>
+        <v>1.043124815761684</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041063791504962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040122898908723</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022790017843266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014282586678908</v>
+        <v>1.013633291900646</v>
       </c>
       <c r="D7">
-        <v>1.032244709097113</v>
+        <v>1.030940768244316</v>
       </c>
       <c r="E7">
-        <v>1.01832560658303</v>
+        <v>1.017769288187447</v>
       </c>
       <c r="F7">
-        <v>1.033785853194402</v>
+        <v>1.033436207482912</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051819136301885</v>
+        <v>1.051171632192558</v>
       </c>
       <c r="J7">
-        <v>1.033321906951283</v>
+        <v>1.032688605489142</v>
       </c>
       <c r="K7">
-        <v>1.041966065850239</v>
+        <v>1.040676692764478</v>
       </c>
       <c r="L7">
-        <v>1.028204847621812</v>
+        <v>1.027654950392098</v>
       </c>
       <c r="M7">
-        <v>1.043490050409854</v>
+        <v>1.043144292231775</v>
       </c>
       <c r="N7">
-        <v>1.015005501883564</v>
+        <v>1.015893522095994</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042991844004025</v>
+        <v>1.042718200478721</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.040762233294936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039861114241852</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022721688861187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009963610974694</v>
+        <v>1.009480435008163</v>
       </c>
       <c r="D8">
-        <v>1.029313742375824</v>
+        <v>1.028237542820291</v>
       </c>
       <c r="E8">
-        <v>1.014969257727072</v>
+        <v>1.014559333200242</v>
       </c>
       <c r="F8">
-        <v>1.030434829099972</v>
+        <v>1.030166135073747</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050674820127524</v>
+        <v>1.050154266634995</v>
       </c>
       <c r="J8">
-        <v>1.031286685690216</v>
+        <v>1.030817159229292</v>
       </c>
       <c r="K8">
-        <v>1.040110757221597</v>
+        <v>1.039048135218138</v>
       </c>
       <c r="L8">
-        <v>1.025950207880696</v>
+        <v>1.025545635443678</v>
       </c>
       <c r="M8">
-        <v>1.041217737704816</v>
+        <v>1.040952421072035</v>
       </c>
       <c r="N8">
-        <v>1.014319291561763</v>
+        <v>1.015445928634832</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041193464813057</v>
+        <v>1.040983484658421</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039454939625658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038714613865233</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022418464221826</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002057066786595</v>
+        <v>1.00186187495935</v>
       </c>
       <c r="D9">
-        <v>1.023964179003761</v>
+        <v>1.023292154160433</v>
       </c>
       <c r="E9">
-        <v>1.008868110314302</v>
+        <v>1.008710902073885</v>
       </c>
       <c r="F9">
-        <v>1.024355009377489</v>
+        <v>1.024227304499449</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048503134540911</v>
+        <v>1.048204684249575</v>
       </c>
       <c r="J9">
-        <v>1.027537393259089</v>
+        <v>1.027349056506033</v>
       </c>
       <c r="K9">
-        <v>1.036680061128005</v>
+        <v>1.036018306779435</v>
       </c>
       <c r="L9">
-        <v>1.021818928673481</v>
+        <v>1.021664214410538</v>
       </c>
       <c r="M9">
-        <v>1.037064926379404</v>
+        <v>1.036939169982631</v>
       </c>
       <c r="N9">
-        <v>1.013053708029784</v>
+        <v>1.01452747874471</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037906788740707</v>
+        <v>1.037807260617676</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037026042250221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036568875072795</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021831252246173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9966371998482144</v>
+        <v>0.9966702939527591</v>
       </c>
       <c r="D10">
-        <v>1.020327762338181</v>
+        <v>1.019954602015207</v>
       </c>
       <c r="E10">
-        <v>1.004725507057583</v>
+        <v>1.004768319093034</v>
       </c>
       <c r="F10">
-        <v>1.020395214646359</v>
+        <v>1.02037827922304</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046997579047542</v>
+        <v>1.04686618365193</v>
       </c>
       <c r="J10">
-        <v>1.024984876840703</v>
+        <v>1.02501664539126</v>
       </c>
       <c r="K10">
-        <v>1.034339442610241</v>
+        <v>1.033972680358859</v>
       </c>
       <c r="L10">
-        <v>1.019009961983626</v>
+        <v>1.019052010487697</v>
       </c>
       <c r="M10">
-        <v>1.034405739050956</v>
+        <v>1.034389093815667</v>
       </c>
       <c r="N10">
-        <v>1.012198019299365</v>
+        <v>1.014024792191561</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.0358538122633</v>
+        <v>1.03584063941635</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035387889385339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035140979296496</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02143062918979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9946571653033447</v>
+        <v>0.9947992467608012</v>
       </c>
       <c r="D11">
-        <v>1.019073215858458</v>
+        <v>1.018823745688751</v>
       </c>
       <c r="E11">
-        <v>1.003277825238992</v>
+        <v>1.003414197829027</v>
       </c>
       <c r="F11">
-        <v>1.020321082531038</v>
+        <v>1.020356382788619</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046645372046024</v>
+        <v>1.046587197159543</v>
       </c>
       <c r="J11">
-        <v>1.024253914075545</v>
+        <v>1.024389995162596</v>
       </c>
       <c r="K11">
-        <v>1.03364418538942</v>
+        <v>1.033399195273496</v>
       </c>
       <c r="L11">
-        <v>1.018138190187202</v>
+        <v>1.018272013330343</v>
       </c>
       <c r="M11">
-        <v>1.034869685240893</v>
+        <v>1.034904353808388</v>
       </c>
       <c r="N11">
-        <v>1.011997408211071</v>
+        <v>1.014116828688491</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036658099966898</v>
+        <v>1.036685522391505</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034929157963182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034771562390809</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021356172323889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9940375767765339</v>
+        <v>0.9942117084808559</v>
       </c>
       <c r="D12">
-        <v>1.018697678369092</v>
+        <v>1.018483858610067</v>
       </c>
       <c r="E12">
-        <v>1.002848137650872</v>
+        <v>1.003010499154371</v>
       </c>
       <c r="F12">
-        <v>1.020851620286316</v>
+        <v>1.020902425248612</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046605912559213</v>
+        <v>1.046569290773523</v>
       </c>
       <c r="J12">
-        <v>1.024096438355266</v>
+        <v>1.024263075605144</v>
       </c>
       <c r="K12">
-        <v>1.033475218387554</v>
+        <v>1.033265302746064</v>
       </c>
       <c r="L12">
-        <v>1.017920974508062</v>
+        <v>1.018080249139007</v>
       </c>
       <c r="M12">
-        <v>1.035589950319905</v>
+        <v>1.035639833035702</v>
       </c>
       <c r="N12">
-        <v>1.011978648760217</v>
+        <v>1.014207322296106</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037554625367901</v>
+        <v>1.037594068611221</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034809692813164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034676897976784</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021354307786327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9944348696713924</v>
+        <v>0.9945747451734287</v>
       </c>
       <c r="D13">
-        <v>1.018989065051761</v>
+        <v>1.01873856138379</v>
       </c>
       <c r="E13">
-        <v>1.003181332597633</v>
+        <v>1.003311493684187</v>
       </c>
       <c r="F13">
-        <v>1.021908414348644</v>
+        <v>1.021943600653629</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046818272424422</v>
+        <v>1.046760102624904</v>
       </c>
       <c r="J13">
-        <v>1.024383147478163</v>
+        <v>1.024517031474672</v>
       </c>
       <c r="K13">
-        <v>1.033718444013242</v>
+        <v>1.033472495803076</v>
       </c>
       <c r="L13">
-        <v>1.018204006054682</v>
+        <v>1.018331702822217</v>
       </c>
       <c r="M13">
-        <v>1.036584918452874</v>
+        <v>1.036619469863441</v>
       </c>
       <c r="N13">
-        <v>1.012104684759386</v>
+        <v>1.014271905612095</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038618202905903</v>
+        <v>1.038645516514515</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034979168410167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034820651863713</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021413247346742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9951705485294589</v>
+        <v>0.9952575074964992</v>
       </c>
       <c r="D14">
-        <v>1.019493684321913</v>
+        <v>1.019185711696798</v>
       </c>
       <c r="E14">
-        <v>1.0037574139574</v>
+        <v>1.003839854504216</v>
       </c>
       <c r="F14">
-        <v>1.022873739841786</v>
+        <v>1.02288449301753</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047077990719359</v>
+        <v>1.046985829223269</v>
       </c>
       <c r="J14">
-        <v>1.024781571058544</v>
+        <v>1.024864857439139</v>
       </c>
       <c r="K14">
-        <v>1.034073608990398</v>
+        <v>1.033771168720585</v>
       </c>
       <c r="L14">
-        <v>1.018625693474307</v>
+        <v>1.018706592613256</v>
       </c>
       <c r="M14">
-        <v>1.037393230064304</v>
+        <v>1.037403791803533</v>
       </c>
       <c r="N14">
-        <v>1.012257360839021</v>
+        <v>1.014305974882512</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039430542344323</v>
+        <v>1.039438890492264</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035231706389526</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035033382408803</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021481968632908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9955790509072469</v>
+        <v>0.9956388259900247</v>
       </c>
       <c r="D15">
-        <v>1.019771159006201</v>
+        <v>1.019433239615884</v>
       </c>
       <c r="E15">
-        <v>1.004071455412773</v>
+        <v>1.004129808035143</v>
       </c>
       <c r="F15">
-        <v>1.023256246482543</v>
+        <v>1.023254344275857</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047204015344392</v>
+        <v>1.047094143429473</v>
       </c>
       <c r="J15">
-        <v>1.024984700254887</v>
+        <v>1.025041972538387</v>
       </c>
       <c r="K15">
-        <v>1.034259697729888</v>
+        <v>1.033927803185854</v>
       </c>
       <c r="L15">
-        <v>1.01884549323608</v>
+        <v>1.018902763159007</v>
       </c>
       <c r="M15">
-        <v>1.037682949796366</v>
+        <v>1.037681081191272</v>
       </c>
       <c r="N15">
-        <v>1.012329766817804</v>
+        <v>1.014314331907286</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039697080509858</v>
+        <v>1.039695603576836</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035369148292244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035150568228701</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021514968732345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9977923297971488</v>
+        <v>0.997720018747337</v>
       </c>
       <c r="D16">
-        <v>1.021253624929265</v>
+        <v>1.020765134854374</v>
       </c>
       <c r="E16">
-        <v>1.005751649876207</v>
+        <v>1.00569473824346</v>
       </c>
       <c r="F16">
-        <v>1.024777893634954</v>
+        <v>1.024713701176457</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047816134831485</v>
+        <v>1.047617895177774</v>
       </c>
       <c r="J16">
-        <v>1.026016746119238</v>
+        <v>1.025947313111358</v>
       </c>
       <c r="K16">
-        <v>1.03521387367027</v>
+        <v>1.034733716253163</v>
       </c>
       <c r="L16">
-        <v>1.019981452368729</v>
+        <v>1.01992555019879</v>
       </c>
       <c r="M16">
-        <v>1.038678329166002</v>
+        <v>1.038615221423118</v>
       </c>
       <c r="N16">
-        <v>1.012670541424326</v>
+        <v>1.014345465672059</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040445101007176</v>
+        <v>1.040395219649648</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036046951873246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035723843415078</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021670491769188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9991104238603989</v>
+        <v>0.9989709989396697</v>
       </c>
       <c r="D17">
-        <v>1.022131689481309</v>
+        <v>1.021562418384893</v>
       </c>
       <c r="E17">
-        <v>1.006744981851918</v>
+        <v>1.006630123178035</v>
       </c>
       <c r="F17">
-        <v>1.025438124262147</v>
+        <v>1.025341735044841</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048149928146784</v>
+        <v>1.047904970270113</v>
       </c>
       <c r="J17">
-        <v>1.026602830141485</v>
+        <v>1.026468777652291</v>
       </c>
       <c r="K17">
-        <v>1.035762487315826</v>
+        <v>1.035202655653072</v>
       </c>
       <c r="L17">
-        <v>1.020635771717412</v>
+        <v>1.020522892479671</v>
       </c>
       <c r="M17">
-        <v>1.039014362578313</v>
+        <v>1.038919557476321</v>
       </c>
       <c r="N17">
-        <v>1.012852971654153</v>
+        <v>1.014380656385018</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040581635732608</v>
+        <v>1.040506692825118</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036437429807314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036058235695692</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02175499730479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9997591614026926</v>
+        <v>0.9995953026665385</v>
       </c>
       <c r="D18">
-        <v>1.022544617622907</v>
+        <v>1.021942958504866</v>
       </c>
       <c r="E18">
-        <v>1.007216196162775</v>
+        <v>1.007081231121224</v>
       </c>
       <c r="F18">
-        <v>1.025308247428632</v>
+        <v>1.025199457138621</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048252538263357</v>
+        <v>1.047989164648776</v>
       </c>
       <c r="J18">
-        <v>1.026831270418457</v>
+        <v>1.026673607702489</v>
       </c>
       <c r="K18">
-        <v>1.035985226814418</v>
+        <v>1.035393380415748</v>
       </c>
       <c r="L18">
-        <v>1.020911520465593</v>
+        <v>1.020778842606923</v>
       </c>
       <c r="M18">
-        <v>1.038703973320217</v>
+        <v>1.038596943987066</v>
       </c>
       <c r="N18">
-        <v>1.012904563347755</v>
+        <v>1.014377066378527</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040098443997431</v>
+        <v>1.040013820267078</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03658328059493</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036180314428531</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021776759475669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9997873288603669</v>
+        <v>0.9996340146680587</v>
       </c>
       <c r="D19">
-        <v>1.02253134843305</v>
+        <v>1.021939460343371</v>
       </c>
       <c r="E19">
-        <v>1.007202044192245</v>
+        <v>1.007077964711127</v>
       </c>
       <c r="F19">
-        <v>1.024405294209882</v>
+        <v>1.024300563252489</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048137116692542</v>
+        <v>1.047879467929686</v>
       </c>
       <c r="J19">
-        <v>1.026723698824409</v>
+        <v>1.026576147479502</v>
       </c>
       <c r="K19">
-        <v>1.035909652956209</v>
+        <v>1.035327366931195</v>
       </c>
       <c r="L19">
-        <v>1.020833725499174</v>
+        <v>1.020711737509105</v>
       </c>
       <c r="M19">
-        <v>1.037753292056712</v>
+        <v>1.037650251122062</v>
       </c>
       <c r="N19">
-        <v>1.012836649714819</v>
+        <v>1.014317773738641</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039020876293882</v>
+        <v>1.03893937935988</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03653624019788</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036140658111572</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02174149627603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9980643968756847</v>
+        <v>0.9980180124968168</v>
       </c>
       <c r="D20">
-        <v>1.021301282470633</v>
+        <v>1.020835486579818</v>
       </c>
       <c r="E20">
-        <v>1.005817780464545</v>
+        <v>1.005790397064704</v>
       </c>
       <c r="F20">
-        <v>1.021437374917563</v>
+        <v>1.021382523072357</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047409435403476</v>
+        <v>1.047224109093534</v>
       </c>
       <c r="J20">
-        <v>1.025670137224106</v>
+        <v>1.025625550814953</v>
       </c>
       <c r="K20">
-        <v>1.034979637726055</v>
+        <v>1.034521602667273</v>
       </c>
       <c r="L20">
-        <v>1.019759096836998</v>
+        <v>1.019732187777614</v>
       </c>
       <c r="M20">
-        <v>1.035113464397282</v>
+        <v>1.035059525675827</v>
       </c>
       <c r="N20">
-        <v>1.012431259211316</v>
+        <v>1.014090709504355</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036403321469773</v>
+        <v>1.036360634470734</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03588260235599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03557526072791</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021541434181631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9939178104654515</v>
+        <v>0.9941402072231444</v>
       </c>
       <c r="D21">
-        <v>1.018509650278726</v>
+        <v>1.018342737831587</v>
       </c>
       <c r="E21">
-        <v>1.002648371306544</v>
+        <v>1.002859155784147</v>
       </c>
       <c r="F21">
-        <v>1.018154291502481</v>
+        <v>1.018226881368025</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046199297505003</v>
+        <v>1.046190729128651</v>
       </c>
       <c r="J21">
-        <v>1.023672045069752</v>
+        <v>1.023884983527689</v>
       </c>
       <c r="K21">
-        <v>1.033148636690266</v>
+        <v>1.032984739434002</v>
       </c>
       <c r="L21">
-        <v>1.017579742593103</v>
+        <v>1.017786562291339</v>
       </c>
       <c r="M21">
-        <v>1.032799698839591</v>
+        <v>1.032870976615908</v>
       </c>
       <c r="N21">
-        <v>1.011753033776063</v>
+        <v>1.014040267662593</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034531126903391</v>
+        <v>1.034587538954326</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034591241803792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034492195929669</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021236957617325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9912799912952062</v>
+        <v>0.9916718411604771</v>
       </c>
       <c r="D22">
-        <v>1.016736222197514</v>
+        <v>1.016757662717127</v>
       </c>
       <c r="E22">
-        <v>1.000641679206608</v>
+        <v>1.001002611055065</v>
       </c>
       <c r="F22">
-        <v>1.01616346589507</v>
+        <v>1.016316516264257</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045429530403792</v>
+        <v>1.045532018293278</v>
       </c>
       <c r="J22">
-        <v>1.02240774348524</v>
+        <v>1.022781967992262</v>
       </c>
       <c r="K22">
-        <v>1.031983265756957</v>
+        <v>1.032004299630566</v>
       </c>
       <c r="L22">
-        <v>1.016200435015385</v>
+        <v>1.016554232156067</v>
       </c>
       <c r="M22">
-        <v>1.031421380793365</v>
+        <v>1.031571524584497</v>
       </c>
       <c r="N22">
-        <v>1.011325113172099</v>
+        <v>1.014002599836554</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033440270606101</v>
+        <v>1.03355910051888</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033753762411668</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033784171398087</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021041195688835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9926746035794628</v>
+        <v>0.9929665303278968</v>
       </c>
       <c r="D23">
-        <v>1.017667311304903</v>
+        <v>1.017581408260292</v>
       </c>
       <c r="E23">
-        <v>1.001700572936883</v>
+        <v>1.001972795718104</v>
       </c>
       <c r="F23">
-        <v>1.017217575957979</v>
+        <v>1.017323375023095</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045833509777952</v>
+        <v>1.04587187721636</v>
       </c>
       <c r="J23">
-        <v>1.023072316454249</v>
+        <v>1.02335149358481</v>
       </c>
       <c r="K23">
-        <v>1.032591815223016</v>
+        <v>1.032507500268767</v>
       </c>
       <c r="L23">
-        <v>1.016926383934672</v>
+        <v>1.017193364233979</v>
       </c>
       <c r="M23">
-        <v>1.032150398014624</v>
+        <v>1.032254239396899</v>
       </c>
       <c r="N23">
-        <v>1.011548809819519</v>
+        <v>1.013978042028199</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034017244345312</v>
+        <v>1.034099428580196</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034174394335347</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034129374068594</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021139506175312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9980779683617321</v>
+        <v>0.9980328437202217</v>
       </c>
       <c r="D24">
-        <v>1.021294208898971</v>
+        <v>1.020829277249951</v>
       </c>
       <c r="E24">
-        <v>1.005820534130701</v>
+        <v>1.005794545774288</v>
       </c>
       <c r="F24">
-        <v>1.021315235361926</v>
+        <v>1.021260879249453</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047386618606175</v>
+        <v>1.047201876291675</v>
       </c>
       <c r="J24">
-        <v>1.025650206593133</v>
+        <v>1.025606828562629</v>
       </c>
       <c r="K24">
-        <v>1.034957416566602</v>
+        <v>1.034500221552516</v>
       </c>
       <c r="L24">
-        <v>1.019746199908533</v>
+        <v>1.01972066114389</v>
       </c>
       <c r="M24">
-        <v>1.034978093355827</v>
+        <v>1.034924641232937</v>
       </c>
       <c r="N24">
-        <v>1.012418722754638</v>
+        <v>1.014077684480756</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036255192436507</v>
+        <v>1.03621288841277</v>
       </c>
       <c r="Q24">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R24">
-        <v>1.035839486229796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035530064790379</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021531519634316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004150427431637</v>
+        <v>1.003869802597278</v>
       </c>
       <c r="D25">
-        <v>1.025387956220437</v>
+        <v>1.024602431112226</v>
       </c>
       <c r="E25">
-        <v>1.010480085096004</v>
+        <v>1.010247753329543</v>
       </c>
       <c r="F25">
-        <v>1.025954388842146</v>
+        <v>1.025785197152647</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049093093925286</v>
+        <v>1.048731288793413</v>
       </c>
       <c r="J25">
-        <v>1.028538915934411</v>
+        <v>1.028267630620097</v>
       </c>
       <c r="K25">
-        <v>1.037604537908217</v>
+        <v>1.03683046412586</v>
       </c>
       <c r="L25">
-        <v>1.022917860831943</v>
+        <v>1.022689042070234</v>
       </c>
       <c r="M25">
-        <v>1.038162726917378</v>
+        <v>1.037995996360366</v>
       </c>
       <c r="N25">
-        <v>1.013393671754769</v>
+        <v>1.014741683788599</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038775626873695</v>
+        <v>1.03864367048795</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037708275045283</v>
+        <v>1.037174497143345</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021992504982371</v>
       </c>
     </row>
   </sheetData>
